--- a/admin/data_absensi.xlsx
+++ b/admin/data_absensi.xlsx
@@ -704,6 +704,12 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:64">
       <c r="A3">
